--- a/backend/Reportes/ramo_administrativas.xlsx
+++ b/backend/Reportes/ramo_administrativas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\report_amig\backend\Reportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084D82A1-EFFB-489F-BBA9-772684BD891C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC7DF0B-A690-4936-8C9C-D6A40D4EDEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PD" sheetId="1" r:id="rId1"/>
@@ -1715,10 +1715,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:XFD1048571"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L98" sqref="L98"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:B31"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2062,43 +2062,22 @@
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="28">
-        <f>+C15-D15</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="29">
-        <f>+IFERROR(E15/D15*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="28"/>
-      <c r="H15" s="40">
-        <f>+IFERROR(G15/C15*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="H15" s="40"/>
       <c r="I15" s="41"/>
       <c r="J15" s="28"/>
-      <c r="K15" s="29">
-        <f>+IFERROR(J15/C15*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="28"/>
-      <c r="N15" s="29">
-        <f>+IFERROR(M15/C15*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="N15" s="29"/>
       <c r="O15" s="29"/>
       <c r="P15" s="28"/>
-      <c r="Q15" s="29">
-        <f>+IFERROR(P15/M15*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="Q15" s="29"/>
       <c r="R15" s="29"/>
       <c r="S15" s="28"/>
-      <c r="T15" s="29">
-        <f>+IFERROR(S15/M15*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="T15" s="29"/>
       <c r="U15" s="29"/>
       <c r="V15" s="30"/>
       <c r="W15" s="31"/>
@@ -2113,43 +2092,22 @@
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="28">
-        <f t="shared" ref="E16:E29" si="0">+C16-D16</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="29">
-        <f t="shared" ref="F16:F29" si="1">+IFERROR(E16/D16*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="28"/>
-      <c r="H16" s="40">
-        <f t="shared" ref="H16:H29" si="2">+IFERROR(G16/C16*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="H16" s="40"/>
       <c r="I16" s="29"/>
       <c r="J16" s="28"/>
-      <c r="K16" s="29">
-        <f t="shared" ref="K16:K29" si="3">+IFERROR(J16/C16*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="K16" s="29"/>
       <c r="L16" s="29"/>
       <c r="M16" s="28"/>
-      <c r="N16" s="29">
-        <f t="shared" ref="N16:N29" si="4">+IFERROR(M16/C16*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="N16" s="29"/>
       <c r="O16" s="29"/>
       <c r="P16" s="28"/>
-      <c r="Q16" s="29">
-        <f t="shared" ref="Q16:Q29" si="5">+IFERROR(P16/M16*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="28"/>
-      <c r="T16" s="29">
-        <f t="shared" ref="T16:T29" si="6">+IFERROR(S16/M16*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="T16" s="29"/>
       <c r="U16" s="29"/>
       <c r="V16" s="30"/>
       <c r="W16" s="31"/>
@@ -2164,43 +2122,22 @@
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
-      <c r="E17" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="28"/>
-      <c r="H17" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="H17" s="40"/>
       <c r="I17" s="29"/>
       <c r="J17" s="28"/>
-      <c r="K17" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="K17" s="29"/>
       <c r="L17" s="29"/>
       <c r="M17" s="28"/>
-      <c r="N17" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="N17" s="29"/>
       <c r="O17" s="29"/>
       <c r="P17" s="28"/>
-      <c r="Q17" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="Q17" s="29"/>
       <c r="R17" s="29"/>
       <c r="S17" s="28"/>
-      <c r="T17" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="T17" s="29"/>
       <c r="U17" s="29"/>
       <c r="V17" s="30"/>
       <c r="W17" s="31"/>
@@ -2215,43 +2152,22 @@
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
-      <c r="E18" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
       <c r="G18" s="28"/>
-      <c r="H18" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="H18" s="40"/>
       <c r="I18" s="29"/>
       <c r="J18" s="28"/>
-      <c r="K18" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="K18" s="29"/>
       <c r="L18" s="29"/>
       <c r="M18" s="28"/>
-      <c r="N18" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="N18" s="29"/>
       <c r="O18" s="29"/>
       <c r="P18" s="28"/>
-      <c r="Q18" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="Q18" s="29"/>
       <c r="R18" s="29"/>
       <c r="S18" s="28"/>
-      <c r="T18" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="T18" s="29"/>
       <c r="U18" s="29"/>
       <c r="V18" s="30"/>
       <c r="W18" s="31"/>
@@ -2266,43 +2182,22 @@
       <c r="B19" s="27"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
-      <c r="E19" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
       <c r="G19" s="28"/>
-      <c r="H19" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="H19" s="40"/>
       <c r="I19" s="29"/>
       <c r="J19" s="28"/>
-      <c r="K19" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="K19" s="29"/>
       <c r="L19" s="29"/>
       <c r="M19" s="28"/>
-      <c r="N19" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="N19" s="29"/>
       <c r="O19" s="29"/>
       <c r="P19" s="28"/>
-      <c r="Q19" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="Q19" s="29"/>
       <c r="R19" s="29"/>
       <c r="S19" s="28"/>
-      <c r="T19" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="T19" s="29"/>
       <c r="U19" s="29"/>
       <c r="V19" s="35"/>
       <c r="W19" s="35"/>
@@ -2317,43 +2212,22 @@
       <c r="B20" s="27"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
-      <c r="E20" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
       <c r="G20" s="28"/>
-      <c r="H20" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="H20" s="40"/>
       <c r="I20" s="29"/>
       <c r="J20" s="28"/>
-      <c r="K20" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="K20" s="29"/>
       <c r="L20" s="29"/>
       <c r="M20" s="28"/>
-      <c r="N20" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="N20" s="29"/>
       <c r="O20" s="29"/>
       <c r="P20" s="28"/>
-      <c r="Q20" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="Q20" s="29"/>
       <c r="R20" s="29"/>
       <c r="S20" s="28"/>
-      <c r="T20" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="T20" s="29"/>
       <c r="U20" s="29"/>
       <c r="V20" s="35"/>
       <c r="W20" s="35"/>
@@ -2368,43 +2242,22 @@
       <c r="B21" s="27"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
       <c r="G21" s="28"/>
-      <c r="H21" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="H21" s="40"/>
       <c r="I21" s="29"/>
       <c r="J21" s="28"/>
-      <c r="K21" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="K21" s="29"/>
       <c r="L21" s="29"/>
       <c r="M21" s="28"/>
-      <c r="N21" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="N21" s="29"/>
       <c r="O21" s="29"/>
       <c r="P21" s="28"/>
-      <c r="Q21" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="Q21" s="29"/>
       <c r="R21" s="29"/>
       <c r="S21" s="28"/>
-      <c r="T21" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="T21" s="29"/>
       <c r="U21" s="29"/>
     </row>
     <row r="22" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -2412,43 +2265,22 @@
       <c r="B22" s="27"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
       <c r="G22" s="28"/>
-      <c r="H22" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="H22" s="40"/>
       <c r="I22" s="29"/>
       <c r="J22" s="28"/>
-      <c r="K22" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="K22" s="29"/>
       <c r="L22" s="29"/>
       <c r="M22" s="28"/>
-      <c r="N22" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="N22" s="29"/>
       <c r="O22" s="29"/>
       <c r="P22" s="28"/>
-      <c r="Q22" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="Q22" s="29"/>
       <c r="R22" s="29"/>
       <c r="S22" s="28"/>
-      <c r="T22" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="T22" s="29"/>
       <c r="U22" s="29"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
@@ -2456,43 +2288,22 @@
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="H23" s="40"/>
       <c r="I23" s="29"/>
       <c r="J23" s="28"/>
-      <c r="K23" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="K23" s="29"/>
       <c r="L23" s="29"/>
       <c r="M23" s="28"/>
-      <c r="N23" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="N23" s="29"/>
       <c r="O23" s="29"/>
       <c r="P23" s="28"/>
-      <c r="Q23" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="Q23" s="29"/>
       <c r="R23" s="29"/>
       <c r="S23" s="28"/>
-      <c r="T23" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="T23" s="29"/>
       <c r="U23" s="29"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
@@ -2500,43 +2311,22 @@
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
-      <c r="E24" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="H24" s="40"/>
       <c r="I24" s="29"/>
       <c r="J24" s="28"/>
-      <c r="K24" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="K24" s="29"/>
       <c r="L24" s="29"/>
       <c r="M24" s="28"/>
-      <c r="N24" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="N24" s="29"/>
       <c r="O24" s="29"/>
       <c r="P24" s="28"/>
-      <c r="Q24" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="Q24" s="29"/>
       <c r="R24" s="29"/>
       <c r="S24" s="28"/>
-      <c r="T24" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="T24" s="29"/>
       <c r="U24" s="29"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
@@ -2544,43 +2334,22 @@
       <c r="B25" s="27"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
-      <c r="E25" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
       <c r="G25" s="28"/>
-      <c r="H25" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="H25" s="40"/>
       <c r="I25" s="29"/>
       <c r="J25" s="28"/>
-      <c r="K25" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="K25" s="29"/>
       <c r="L25" s="29"/>
       <c r="M25" s="28"/>
-      <c r="N25" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="N25" s="29"/>
       <c r="O25" s="29"/>
       <c r="P25" s="28"/>
-      <c r="Q25" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
       <c r="S25" s="28"/>
-      <c r="T25" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="T25" s="29"/>
       <c r="U25" s="29"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
@@ -2588,43 +2357,22 @@
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="H26" s="40"/>
       <c r="I26" s="29"/>
       <c r="J26" s="28"/>
-      <c r="K26" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="K26" s="29"/>
       <c r="L26" s="29"/>
       <c r="M26" s="28"/>
-      <c r="N26" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="N26" s="29"/>
       <c r="O26" s="29"/>
       <c r="P26" s="28"/>
-      <c r="Q26" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="Q26" s="29"/>
       <c r="R26" s="29"/>
       <c r="S26" s="28"/>
-      <c r="T26" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="T26" s="29"/>
       <c r="U26" s="29"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -2632,43 +2380,22 @@
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
       <c r="G27" s="28"/>
-      <c r="H27" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="H27" s="40"/>
       <c r="I27" s="29"/>
       <c r="J27" s="28"/>
-      <c r="K27" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="K27" s="29"/>
       <c r="L27" s="29"/>
       <c r="M27" s="28"/>
-      <c r="N27" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="N27" s="29"/>
       <c r="O27" s="29"/>
       <c r="P27" s="28"/>
-      <c r="Q27" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
       <c r="S27" s="28"/>
-      <c r="T27" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="T27" s="29"/>
       <c r="U27" s="29"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
@@ -2676,43 +2403,22 @@
       <c r="B28" s="27"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
       <c r="G28" s="28"/>
-      <c r="H28" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="H28" s="40"/>
       <c r="I28" s="29"/>
       <c r="J28" s="28"/>
-      <c r="K28" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="K28" s="29"/>
       <c r="L28" s="29"/>
       <c r="M28" s="28"/>
-      <c r="N28" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="N28" s="29"/>
       <c r="O28" s="29"/>
       <c r="P28" s="28"/>
-      <c r="Q28" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="Q28" s="29"/>
       <c r="R28" s="29"/>
       <c r="S28" s="28"/>
-      <c r="T28" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="T28" s="29"/>
       <c r="U28" s="29"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
@@ -2720,43 +2426,22 @@
       <c r="B29" s="42"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
-      <c r="E29" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
       <c r="G29" s="28"/>
-      <c r="H29" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="H29" s="40"/>
       <c r="I29" s="29"/>
       <c r="J29" s="28"/>
-      <c r="K29" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="K29" s="29"/>
       <c r="L29" s="29"/>
       <c r="M29" s="28"/>
-      <c r="N29" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="N29" s="29"/>
       <c r="O29" s="29"/>
       <c r="P29" s="28"/>
-      <c r="Q29" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="Q29" s="29"/>
       <c r="R29" s="29"/>
       <c r="S29" s="28"/>
-      <c r="T29" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="T29" s="29"/>
       <c r="U29" s="29"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
@@ -2764,43 +2449,22 @@
       <c r="B30" s="42"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
-      <c r="E30" s="28">
-        <f t="shared" ref="E30:E31" si="7">+C30-D30</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="29">
-        <f t="shared" ref="F30:F31" si="8">+IFERROR(E30/D30*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="29"/>
       <c r="G30" s="28"/>
-      <c r="H30" s="40">
-        <f t="shared" ref="H30:H31" si="9">+IFERROR(G30/C30*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="H30" s="40"/>
       <c r="I30" s="29"/>
       <c r="J30" s="28"/>
-      <c r="K30" s="29">
-        <f t="shared" ref="K30:K31" si="10">+IFERROR(J30/C30*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="K30" s="29"/>
       <c r="L30" s="29"/>
       <c r="M30" s="28"/>
-      <c r="N30" s="29">
-        <f t="shared" ref="N30:N31" si="11">+IFERROR(M30/C30*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="N30" s="29"/>
       <c r="O30" s="29"/>
       <c r="P30" s="28"/>
-      <c r="Q30" s="29">
-        <f t="shared" ref="Q30:Q31" si="12">+IFERROR(P30/M30*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="Q30" s="29"/>
       <c r="R30" s="29"/>
       <c r="S30" s="28"/>
-      <c r="T30" s="29">
-        <f t="shared" ref="T30:T31" si="13">+IFERROR(S30/M30*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="T30" s="29"/>
       <c r="U30" s="29"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
@@ -2808,43 +2472,22 @@
       <c r="B31" s="42"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
-      <c r="E31" s="28">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="40">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="H31" s="40"/>
       <c r="I31" s="29"/>
       <c r="J31" s="28"/>
-      <c r="K31" s="29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="K31" s="29"/>
       <c r="L31" s="29"/>
       <c r="M31" s="28"/>
-      <c r="N31" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="N31" s="29"/>
       <c r="O31" s="29"/>
       <c r="P31" s="28"/>
-      <c r="Q31" s="29">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="Q31" s="29"/>
       <c r="R31" s="29"/>
       <c r="S31" s="28"/>
-      <c r="T31" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="T31" s="29"/>
       <c r="U31" s="29"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
@@ -2955,7 +2598,7 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:J12"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6" xr:uid="{CACFB6A1-C746-4EEF-A920-13057E36DC0A}">
       <formula1>$XFD$1048568:$XFD$1048571</formula1>
     </dataValidation>
@@ -2972,7 +2615,7 @@
   <dimension ref="A6:XFD1048571"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B31"/>
+      <selection activeCell="P15" sqref="P15:P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3294,34 +2937,19 @@
       <c r="A15" s="26"/>
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
-      <c r="D15" s="29">
-        <f>+IFERROR(C15/PD!M15*100,0)*100</f>
-        <v>0</v>
-      </c>
+      <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="28"/>
-      <c r="G15" s="29">
-        <f>+IFERROR(F15/PD!C15*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="29">
-        <f>+IFERROR(I15/PD!M15*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="28"/>
-      <c r="M15" s="29">
-        <f>+IFERROR(L15/PD!S15*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="M15" s="29"/>
       <c r="N15" s="29"/>
       <c r="O15" s="28"/>
-      <c r="P15" s="29">
-        <f>+IFERROR(O15/PD!C15*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
       <c r="R15" s="28"/>
       <c r="S15" s="28"/>
@@ -3338,34 +2966,19 @@
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
-      <c r="D16" s="29">
-        <f>+IFERROR(C16/PD!M16*100,0)*100</f>
-        <v>0</v>
-      </c>
+      <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="28"/>
-      <c r="G16" s="29">
-        <f>+IFERROR(F16/PD!C16*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="29">
-        <f>+IFERROR(I16/PD!M16*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="28"/>
-      <c r="M16" s="29">
-        <f>+IFERROR(L16/PD!S16*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="M16" s="29"/>
       <c r="N16" s="29"/>
       <c r="O16" s="28"/>
-      <c r="P16" s="29">
-        <f>+IFERROR(O16/PD!C16*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
       <c r="R16" s="28"/>
       <c r="S16" s="28"/>
@@ -3382,34 +2995,19 @@
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
-      <c r="D17" s="29">
-        <f>+IFERROR(C17/PD!M17*100,0)*100</f>
-        <v>0</v>
-      </c>
+      <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="28"/>
-      <c r="G17" s="29">
-        <f>+IFERROR(F17/PD!C17*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="28"/>
-      <c r="J17" s="29">
-        <f>+IFERROR(I17/PD!M17*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J17" s="29"/>
       <c r="K17" s="29"/>
       <c r="L17" s="28"/>
-      <c r="M17" s="29">
-        <f>+IFERROR(L17/PD!S17*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="M17" s="29"/>
       <c r="N17" s="29"/>
       <c r="O17" s="28"/>
-      <c r="P17" s="29">
-        <f>+IFERROR(O17/PD!C17*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="28"/>
       <c r="S17" s="28"/>
@@ -3425,34 +3023,19 @@
       <c r="A18" s="26"/>
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
-      <c r="D18" s="29">
-        <f>+IFERROR(C18/PD!M18*100,0)*100</f>
-        <v>0</v>
-      </c>
+      <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="28"/>
-      <c r="G18" s="29">
-        <f>+IFERROR(F18/PD!C18*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="29">
-        <f>+IFERROR(I18/PD!M18*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="28"/>
-      <c r="M18" s="29">
-        <f>+IFERROR(L18/PD!S18*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="M18" s="29"/>
       <c r="N18" s="29"/>
       <c r="O18" s="28"/>
-      <c r="P18" s="29">
-        <f>+IFERROR(O18/PD!C18*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
       <c r="R18" s="28"/>
       <c r="S18" s="28"/>
@@ -3469,34 +3052,19 @@
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28"/>
-      <c r="D19" s="29">
-        <f>+IFERROR(C19/PD!M19*100,0)*100</f>
-        <v>0</v>
-      </c>
+      <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="29">
-        <f>+IFERROR(F19/PD!C19*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="28"/>
-      <c r="J19" s="29">
-        <f>+IFERROR(I19/PD!M19*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="28"/>
-      <c r="M19" s="29">
-        <f>+IFERROR(L19/PD!S19*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="M19" s="29"/>
       <c r="N19" s="29"/>
       <c r="O19" s="28"/>
-      <c r="P19" s="29">
-        <f>+IFERROR(O19/PD!C19*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P19" s="29"/>
       <c r="Q19" s="29"/>
       <c r="R19" s="28"/>
       <c r="S19" s="28"/>
@@ -3512,34 +3080,19 @@
       <c r="A20" s="26"/>
       <c r="B20" s="27"/>
       <c r="C20" s="28"/>
-      <c r="D20" s="29">
-        <f>+IFERROR(C20/PD!M20*100,0)*100</f>
-        <v>0</v>
-      </c>
+      <c r="D20" s="29"/>
       <c r="E20" s="29"/>
       <c r="F20" s="28"/>
-      <c r="G20" s="29">
-        <f>+IFERROR(F20/PD!C20*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="28"/>
-      <c r="J20" s="29">
-        <f>+IFERROR(I20/PD!M20*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="28"/>
-      <c r="M20" s="29">
-        <f>+IFERROR(L20/PD!S20*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="M20" s="29"/>
       <c r="N20" s="29"/>
       <c r="O20" s="28"/>
-      <c r="P20" s="29">
-        <f>+IFERROR(O20/PD!C20*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P20" s="29"/>
       <c r="Q20" s="29"/>
       <c r="R20" s="28"/>
       <c r="S20" s="28"/>
@@ -3556,34 +3109,19 @@
       <c r="A21" s="26"/>
       <c r="B21" s="27"/>
       <c r="C21" s="28"/>
-      <c r="D21" s="29">
-        <f>+IFERROR(C21/PD!M21*100,0)*100</f>
-        <v>0</v>
-      </c>
+      <c r="D21" s="29"/>
       <c r="E21" s="29"/>
       <c r="F21" s="28"/>
-      <c r="G21" s="29">
-        <f>+IFERROR(F21/PD!C21*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G21" s="29"/>
       <c r="H21" s="29"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="29">
-        <f>+IFERROR(I21/PD!M21*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="L21" s="28"/>
-      <c r="M21" s="29">
-        <f>+IFERROR(L21/PD!S21*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="M21" s="29"/>
       <c r="N21" s="29"/>
       <c r="O21" s="28"/>
-      <c r="P21" s="29">
-        <f>+IFERROR(O21/PD!C21*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P21" s="29"/>
       <c r="Q21" s="29"/>
       <c r="R21" s="28"/>
       <c r="S21" s="28"/>
@@ -3599,34 +3137,19 @@
       <c r="A22" s="26"/>
       <c r="B22" s="27"/>
       <c r="C22" s="28"/>
-      <c r="D22" s="29">
-        <f>+IFERROR(C22/PD!M22*100,0)*100</f>
-        <v>0</v>
-      </c>
+      <c r="D22" s="29"/>
       <c r="E22" s="29"/>
       <c r="F22" s="28"/>
-      <c r="G22" s="29">
-        <f>+IFERROR(F22/PD!C22*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="28"/>
-      <c r="J22" s="29">
-        <f>+IFERROR(I22/PD!M22*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="28"/>
-      <c r="M22" s="29">
-        <f>+IFERROR(L22/PD!S22*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="M22" s="29"/>
       <c r="N22" s="29"/>
       <c r="O22" s="28"/>
-      <c r="P22" s="29">
-        <f>+IFERROR(O22/PD!C22*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P22" s="29"/>
       <c r="Q22" s="29"/>
       <c r="R22" s="28"/>
       <c r="S22" s="28"/>
@@ -3643,34 +3166,19 @@
       <c r="A23" s="26"/>
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
-      <c r="D23" s="29">
-        <f>+IFERROR(C23/PD!M23*100,0)*100</f>
-        <v>0</v>
-      </c>
+      <c r="D23" s="29"/>
       <c r="E23" s="29"/>
       <c r="F23" s="28"/>
-      <c r="G23" s="29">
-        <f>+IFERROR(F23/PD!C23*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G23" s="29"/>
       <c r="H23" s="29"/>
       <c r="I23" s="28"/>
-      <c r="J23" s="29">
-        <f>+IFERROR(I23/PD!M23*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="28"/>
-      <c r="M23" s="29">
-        <f>+IFERROR(L23/PD!S23*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="M23" s="29"/>
       <c r="N23" s="29"/>
       <c r="O23" s="28"/>
-      <c r="P23" s="29">
-        <f>+IFERROR(O23/PD!C23*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P23" s="29"/>
       <c r="Q23" s="29"/>
       <c r="R23" s="28"/>
       <c r="S23" s="28"/>
@@ -3687,34 +3195,19 @@
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
-      <c r="D24" s="29">
-        <f>+IFERROR(C24/PD!M24*100,0)*100</f>
-        <v>0</v>
-      </c>
+      <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="28"/>
-      <c r="G24" s="29">
-        <f>+IFERROR(F24/PD!C24*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G24" s="29"/>
       <c r="H24" s="29"/>
       <c r="I24" s="28"/>
-      <c r="J24" s="29">
-        <f>+IFERROR(I24/PD!M24*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="28"/>
-      <c r="M24" s="29">
-        <f>+IFERROR(L24/PD!S24*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="M24" s="29"/>
       <c r="N24" s="29"/>
       <c r="O24" s="28"/>
-      <c r="P24" s="29">
-        <f>+IFERROR(O24/PD!C24*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P24" s="29"/>
       <c r="Q24" s="29"/>
       <c r="R24" s="28"/>
       <c r="S24" s="28"/>
@@ -3731,34 +3224,19 @@
       <c r="A25" s="26"/>
       <c r="B25" s="27"/>
       <c r="C25" s="28"/>
-      <c r="D25" s="29">
-        <f>+IFERROR(C25/PD!M25*100,0)*100</f>
-        <v>0</v>
-      </c>
+      <c r="D25" s="29"/>
       <c r="E25" s="29"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="29">
-        <f>+IFERROR(F25/PD!C25*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G25" s="29"/>
       <c r="H25" s="29"/>
       <c r="I25" s="28"/>
-      <c r="J25" s="29">
-        <f>+IFERROR(I25/PD!M25*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J25" s="29"/>
       <c r="K25" s="29"/>
       <c r="L25" s="28"/>
-      <c r="M25" s="29">
-        <f>+IFERROR(L25/PD!S25*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="M25" s="29"/>
       <c r="N25" s="29"/>
       <c r="O25" s="28"/>
-      <c r="P25" s="29">
-        <f>+IFERROR(O25/PD!C25*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="28"/>
       <c r="S25" s="28"/>
@@ -3775,34 +3253,19 @@
       <c r="A26" s="26"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
-      <c r="D26" s="29">
-        <f>+IFERROR(C26/PD!M26*100,0)*100</f>
-        <v>0</v>
-      </c>
+      <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="29">
-        <f>+IFERROR(F26/PD!C26*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G26" s="29"/>
       <c r="H26" s="29"/>
       <c r="I26" s="28"/>
-      <c r="J26" s="29">
-        <f>+IFERROR(I26/PD!M26*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J26" s="29"/>
       <c r="K26" s="29"/>
       <c r="L26" s="28"/>
-      <c r="M26" s="29">
-        <f>+IFERROR(L26/PD!S26*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="M26" s="29"/>
       <c r="N26" s="29"/>
       <c r="O26" s="28"/>
-      <c r="P26" s="29">
-        <f>+IFERROR(O26/PD!C26*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="28"/>
       <c r="S26" s="28"/>
@@ -3819,34 +3282,19 @@
       <c r="A27" s="26"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
-      <c r="D27" s="29">
-        <f>+IFERROR(C27/PD!M27*100,0)*100</f>
-        <v>0</v>
-      </c>
+      <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="28"/>
-      <c r="G27" s="29">
-        <f>+IFERROR(F27/PD!C27*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G27" s="29"/>
       <c r="H27" s="29"/>
       <c r="I27" s="28"/>
-      <c r="J27" s="29">
-        <f>+IFERROR(I27/PD!M27*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J27" s="29"/>
       <c r="K27" s="29"/>
       <c r="L27" s="28"/>
-      <c r="M27" s="29">
-        <f>+IFERROR(L27/PD!S27*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="M27" s="29"/>
       <c r="N27" s="29"/>
       <c r="O27" s="28"/>
-      <c r="P27" s="29">
-        <f>+IFERROR(O27/PD!C27*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="28"/>
       <c r="S27" s="28"/>
@@ -3862,34 +3310,19 @@
       <c r="A28" s="26"/>
       <c r="B28" s="27"/>
       <c r="C28" s="28"/>
-      <c r="D28" s="29">
-        <f>+IFERROR(C28/PD!M28*100,0)*100</f>
-        <v>0</v>
-      </c>
+      <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="28"/>
-      <c r="G28" s="29">
-        <f>+IFERROR(F28/PD!C28*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="28"/>
-      <c r="J28" s="29">
-        <f>+IFERROR(I28/PD!M28*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J28" s="29"/>
       <c r="K28" s="29"/>
       <c r="L28" s="28"/>
-      <c r="M28" s="29">
-        <f>+IFERROR(L28/PD!S28*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="M28" s="29"/>
       <c r="N28" s="29"/>
       <c r="O28" s="28"/>
-      <c r="P28" s="29">
-        <f>+IFERROR(O28/PD!C28*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P28" s="29"/>
       <c r="Q28" s="29"/>
       <c r="R28" s="28"/>
       <c r="S28" s="28"/>
@@ -3906,34 +3339,19 @@
       <c r="A29" s="26"/>
       <c r="B29" s="42"/>
       <c r="C29" s="28"/>
-      <c r="D29" s="29">
-        <f>+IFERROR(C29/PD!M29*100,0)*100</f>
-        <v>0</v>
-      </c>
+      <c r="D29" s="29"/>
       <c r="E29" s="29"/>
       <c r="F29" s="28"/>
-      <c r="G29" s="29">
-        <f>+IFERROR(F29/PD!C29*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G29" s="29"/>
       <c r="H29" s="29"/>
       <c r="I29" s="28"/>
-      <c r="J29" s="29">
-        <f>+IFERROR(I29/PD!M29*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J29" s="29"/>
       <c r="K29" s="29"/>
       <c r="L29" s="28"/>
-      <c r="M29" s="29">
-        <f>+IFERROR(L29/PD!S29*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="M29" s="29"/>
       <c r="N29" s="29"/>
       <c r="O29" s="28"/>
-      <c r="P29" s="29">
-        <f>+IFERROR(O29/PD!C29*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="28"/>
       <c r="S29" s="28"/>
@@ -3950,34 +3368,19 @@
       <c r="A30" s="26"/>
       <c r="B30" s="42"/>
       <c r="C30" s="28"/>
-      <c r="D30" s="29">
-        <f>+IFERROR(C30/PD!M30*100,0)*100</f>
-        <v>0</v>
-      </c>
+      <c r="D30" s="29"/>
       <c r="E30" s="29"/>
       <c r="F30" s="28"/>
-      <c r="G30" s="29">
-        <f>+IFERROR(F30/PD!C30*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G30" s="29"/>
       <c r="H30" s="29"/>
       <c r="I30" s="28"/>
-      <c r="J30" s="29">
-        <f>+IFERROR(I30/PD!M30*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J30" s="29"/>
       <c r="K30" s="29"/>
       <c r="L30" s="28"/>
-      <c r="M30" s="29">
-        <f>+IFERROR(L30/PD!S30*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="M30" s="29"/>
       <c r="N30" s="29"/>
       <c r="O30" s="28"/>
-      <c r="P30" s="29">
-        <f>+IFERROR(O30/PD!C30*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P30" s="29"/>
       <c r="Q30" s="29"/>
       <c r="R30" s="28"/>
       <c r="S30" s="28"/>
@@ -3994,34 +3397,19 @@
       <c r="A31" s="26"/>
       <c r="B31" s="42"/>
       <c r="C31" s="28"/>
-      <c r="D31" s="29">
-        <f>+IFERROR(C31/PD!M31*100,0)*100</f>
-        <v>0</v>
-      </c>
+      <c r="D31" s="29"/>
       <c r="E31" s="29"/>
       <c r="F31" s="28"/>
-      <c r="G31" s="29">
-        <f>+IFERROR(F31/PD!C31*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G31" s="29"/>
       <c r="H31" s="29"/>
       <c r="I31" s="28"/>
-      <c r="J31" s="29">
-        <f>+IFERROR(I31/PD!M31*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J31" s="29"/>
       <c r="K31" s="29"/>
       <c r="L31" s="28"/>
-      <c r="M31" s="29">
-        <f>+IFERROR(L31/PD!S31*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="M31" s="29"/>
       <c r="N31" s="29"/>
       <c r="O31" s="28"/>
-      <c r="P31" s="29">
-        <f>+IFERROR(O31/PD!C31*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P31" s="29"/>
       <c r="Q31" s="29"/>
       <c r="R31" s="28"/>
       <c r="S31" s="28"/>
@@ -4156,7 +3544,7 @@
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I99" sqref="I99"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:B31"/>
+      <selection pane="bottomLeft" activeCell="P15" sqref="P15:P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4460,37 +3848,19 @@
       <c r="A15" s="26"/>
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
-      <c r="D15" s="29">
-        <f>+IFERROR(C15/PD!C15*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D15" s="29"/>
       <c r="E15" s="29"/>
-      <c r="F15" s="29">
-        <f>+IFERROR(C15/PD!M16*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="29">
-        <f>+IFERROR(H15/PD!C16*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="I15" s="29"/>
       <c r="J15" s="29"/>
-      <c r="K15" s="29">
-        <f>+IFERROR(H15/PD!M16*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="28"/>
-      <c r="N15" s="29">
-        <f>+IFERROR(M15/PD!C16*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="N15" s="29"/>
       <c r="O15" s="29"/>
-      <c r="P15" s="29">
-        <f>+IFERROR(M15/PD!M16*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
@@ -4506,37 +3876,19 @@
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
-      <c r="D16" s="29">
-        <f>+IFERROR(C16/PD!C16*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D16" s="29"/>
       <c r="E16" s="29"/>
-      <c r="F16" s="29">
-        <f>+IFERROR(C16/PD!M17*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="29">
-        <f>+IFERROR(H16/PD!C17*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="I16" s="29"/>
       <c r="J16" s="29"/>
-      <c r="K16" s="29">
-        <f>+IFERROR(H16/PD!M17*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="K16" s="29"/>
       <c r="L16" s="29"/>
       <c r="M16" s="28"/>
-      <c r="N16" s="29">
-        <f>+IFERROR(M16/PD!C17*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="N16" s="29"/>
       <c r="O16" s="29"/>
-      <c r="P16" s="29">
-        <f>+IFERROR(M16/PD!M17*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
@@ -4552,37 +3904,19 @@
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
-      <c r="D17" s="29">
-        <f>+IFERROR(C17/PD!C17*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D17" s="29"/>
       <c r="E17" s="29"/>
-      <c r="F17" s="29">
-        <f>+IFERROR(C17/PD!M18*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="29">
-        <f>+IFERROR(H17/PD!C18*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="I17" s="29"/>
       <c r="J17" s="29"/>
-      <c r="K17" s="29">
-        <f>+IFERROR(H17/PD!M18*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="K17" s="29"/>
       <c r="L17" s="29"/>
       <c r="M17" s="28"/>
-      <c r="N17" s="29">
-        <f>+IFERROR(M17/PD!C18*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="N17" s="29"/>
       <c r="O17" s="29"/>
-      <c r="P17" s="29">
-        <f>+IFERROR(M17/PD!M18*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="29"/>
       <c r="S17" s="29"/>
@@ -4598,37 +3932,19 @@
       <c r="A18" s="26"/>
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
-      <c r="D18" s="29">
-        <f>+IFERROR(C18/PD!C18*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D18" s="29"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="29">
-        <f>+IFERROR(C18/PD!M19*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="29">
-        <f>+IFERROR(H18/PD!C19*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="I18" s="29"/>
       <c r="J18" s="29"/>
-      <c r="K18" s="29">
-        <f>+IFERROR(H18/PD!M19*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="K18" s="29"/>
       <c r="L18" s="29"/>
       <c r="M18" s="28"/>
-      <c r="N18" s="29">
-        <f>+IFERROR(M18/PD!C19*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="N18" s="29"/>
       <c r="O18" s="29"/>
-      <c r="P18" s="29">
-        <f>+IFERROR(M18/PD!M19*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
       <c r="R18" s="29"/>
       <c r="S18" s="29"/>
@@ -4644,37 +3960,19 @@
       <c r="A19" s="33"/>
       <c r="B19" s="53"/>
       <c r="C19" s="54"/>
-      <c r="D19" s="29">
-        <f>+IFERROR(C19/PD!C19*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D19" s="29"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="29">
-        <f>+IFERROR(C19/PD!M20*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="29">
-        <f>+IFERROR(H19/PD!C20*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="I19" s="29"/>
       <c r="J19" s="29"/>
-      <c r="K19" s="29">
-        <f>+IFERROR(H19/PD!M20*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="K19" s="29"/>
       <c r="L19" s="29"/>
       <c r="M19" s="28"/>
-      <c r="N19" s="29">
-        <f>+IFERROR(M19/PD!C20*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="N19" s="29"/>
       <c r="O19" s="29"/>
-      <c r="P19" s="29">
-        <f>+IFERROR(M19/PD!M20*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P19" s="29"/>
       <c r="Q19" s="55"/>
       <c r="R19" s="55"/>
       <c r="S19" s="55"/>
@@ -4690,37 +3988,19 @@
       <c r="A20" s="33"/>
       <c r="B20" s="53"/>
       <c r="C20" s="54"/>
-      <c r="D20" s="29">
-        <f>+IFERROR(C20/PD!C20*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D20" s="29"/>
       <c r="E20" s="29"/>
-      <c r="F20" s="29">
-        <f>+IFERROR(C20/PD!M21*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="29">
-        <f>+IFERROR(H20/PD!C21*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="I20" s="29"/>
       <c r="J20" s="29"/>
-      <c r="K20" s="29">
-        <f>+IFERROR(H20/PD!M21*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="K20" s="29"/>
       <c r="L20" s="29"/>
       <c r="M20" s="28"/>
-      <c r="N20" s="29">
-        <f>+IFERROR(M20/PD!C21*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="N20" s="29"/>
       <c r="O20" s="29"/>
-      <c r="P20" s="29">
-        <f>+IFERROR(M20/PD!M21*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P20" s="29"/>
       <c r="Q20" s="55"/>
       <c r="R20" s="55"/>
       <c r="S20" s="55"/>
@@ -4736,37 +4016,19 @@
       <c r="A21" s="33"/>
       <c r="B21" s="53"/>
       <c r="C21" s="54"/>
-      <c r="D21" s="29">
-        <f>+IFERROR(C21/PD!C21*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D21" s="29"/>
       <c r="E21" s="29"/>
-      <c r="F21" s="29">
-        <f>+IFERROR(C21/PD!M22*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="F21" s="29"/>
       <c r="G21" s="29"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="29">
-        <f>+IFERROR(H21/PD!C22*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="I21" s="29"/>
       <c r="J21" s="29"/>
-      <c r="K21" s="29">
-        <f>+IFERROR(H21/PD!M22*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="K21" s="29"/>
       <c r="L21" s="29"/>
       <c r="M21" s="28"/>
-      <c r="N21" s="29">
-        <f>+IFERROR(M21/PD!C22*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="N21" s="29"/>
       <c r="O21" s="29"/>
-      <c r="P21" s="29">
-        <f>+IFERROR(M21/PD!M22*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P21" s="29"/>
       <c r="Q21" s="55"/>
       <c r="R21" s="55"/>
       <c r="S21" s="55"/>
@@ -4782,37 +4044,19 @@
       <c r="A22" s="33"/>
       <c r="B22" s="53"/>
       <c r="C22" s="54"/>
-      <c r="D22" s="29">
-        <f>+IFERROR(C22/PD!C22*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D22" s="29"/>
       <c r="E22" s="29"/>
-      <c r="F22" s="29">
-        <f>+IFERROR(C22/PD!M23*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="29">
-        <f>+IFERROR(H22/PD!C23*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="I22" s="29"/>
       <c r="J22" s="29"/>
-      <c r="K22" s="29">
-        <f>+IFERROR(H22/PD!M23*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="K22" s="29"/>
       <c r="L22" s="29"/>
       <c r="M22" s="28"/>
-      <c r="N22" s="29">
-        <f>+IFERROR(M22/PD!C23*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="N22" s="29"/>
       <c r="O22" s="29"/>
-      <c r="P22" s="29">
-        <f>+IFERROR(M22/PD!M23*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P22" s="29"/>
       <c r="Q22" s="55"/>
       <c r="R22" s="55"/>
       <c r="S22" s="55"/>
@@ -4828,37 +4072,19 @@
       <c r="A23" s="33"/>
       <c r="B23" s="53"/>
       <c r="C23" s="54"/>
-      <c r="D23" s="29">
-        <f>+IFERROR(C23/PD!C23*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D23" s="29"/>
       <c r="E23" s="29"/>
-      <c r="F23" s="29">
-        <f>+IFERROR(C23/PD!M24*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="F23" s="29"/>
       <c r="G23" s="29"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="29">
-        <f>+IFERROR(H23/PD!C24*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="I23" s="29"/>
       <c r="J23" s="29"/>
-      <c r="K23" s="29">
-        <f>+IFERROR(H23/PD!M24*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="K23" s="29"/>
       <c r="L23" s="29"/>
       <c r="M23" s="28"/>
-      <c r="N23" s="29">
-        <f>+IFERROR(M23/PD!C24*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="N23" s="29"/>
       <c r="O23" s="29"/>
-      <c r="P23" s="29">
-        <f>+IFERROR(M23/PD!M24*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P23" s="29"/>
       <c r="Q23" s="55"/>
       <c r="R23" s="55"/>
       <c r="S23" s="55"/>
@@ -4874,37 +4100,19 @@
       <c r="A24" s="33"/>
       <c r="B24" s="53"/>
       <c r="C24" s="54"/>
-      <c r="D24" s="29">
-        <f>+IFERROR(C24/PD!C24*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D24" s="29"/>
       <c r="E24" s="29"/>
-      <c r="F24" s="29">
-        <f>+IFERROR(C24/PD!M25*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="F24" s="29"/>
       <c r="G24" s="29"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="29">
-        <f>+IFERROR(H24/PD!C25*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="I24" s="29"/>
       <c r="J24" s="29"/>
-      <c r="K24" s="29">
-        <f>+IFERROR(H24/PD!M25*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="K24" s="29"/>
       <c r="L24" s="29"/>
       <c r="M24" s="28"/>
-      <c r="N24" s="29">
-        <f>+IFERROR(M24/PD!C25*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="N24" s="29"/>
       <c r="O24" s="29"/>
-      <c r="P24" s="29">
-        <f>+IFERROR(M24/PD!M25*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P24" s="29"/>
       <c r="Q24" s="55"/>
       <c r="R24" s="55"/>
       <c r="S24" s="55"/>
@@ -4920,37 +4128,19 @@
       <c r="A25" s="33"/>
       <c r="B25" s="53"/>
       <c r="C25" s="54"/>
-      <c r="D25" s="29">
-        <f>+IFERROR(C25/PD!C25*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D25" s="29"/>
       <c r="E25" s="29"/>
-      <c r="F25" s="29">
-        <f>+IFERROR(C25/PD!M26*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="F25" s="29"/>
       <c r="G25" s="29"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="29">
-        <f>+IFERROR(H25/PD!C26*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="I25" s="29"/>
       <c r="J25" s="29"/>
-      <c r="K25" s="29">
-        <f>+IFERROR(H25/PD!M26*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="K25" s="29"/>
       <c r="L25" s="29"/>
       <c r="M25" s="28"/>
-      <c r="N25" s="29">
-        <f>+IFERROR(M25/PD!C26*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="N25" s="29"/>
       <c r="O25" s="29"/>
-      <c r="P25" s="29">
-        <f>+IFERROR(M25/PD!M26*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P25" s="29"/>
       <c r="Q25" s="55"/>
       <c r="R25" s="55"/>
       <c r="S25" s="55"/>
@@ -4966,37 +4156,19 @@
       <c r="A26" s="33"/>
       <c r="B26" s="53"/>
       <c r="C26" s="54"/>
-      <c r="D26" s="29">
-        <f>+IFERROR(C26/PD!C26*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D26" s="29"/>
       <c r="E26" s="29"/>
-      <c r="F26" s="29">
-        <f>+IFERROR(C26/PD!M27*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="F26" s="29"/>
       <c r="G26" s="29"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="29">
-        <f>+IFERROR(H26/PD!C27*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="I26" s="29"/>
       <c r="J26" s="29"/>
-      <c r="K26" s="29">
-        <f>+IFERROR(H26/PD!M27*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="K26" s="29"/>
       <c r="L26" s="29"/>
       <c r="M26" s="28"/>
-      <c r="N26" s="29">
-        <f>+IFERROR(M26/PD!C27*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="N26" s="29"/>
       <c r="O26" s="29"/>
-      <c r="P26" s="29">
-        <f>+IFERROR(M26/PD!M27*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P26" s="29"/>
       <c r="Q26" s="55"/>
       <c r="R26" s="55"/>
       <c r="S26" s="55"/>
@@ -5012,37 +4184,19 @@
       <c r="A27" s="33"/>
       <c r="B27" s="53"/>
       <c r="C27" s="54"/>
-      <c r="D27" s="29">
-        <f>+IFERROR(C27/PD!C27*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D27" s="29"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="29">
-        <f>+IFERROR(C27/PD!M28*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="F27" s="29"/>
       <c r="G27" s="29"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="29">
-        <f>+IFERROR(H27/PD!C28*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="I27" s="29"/>
       <c r="J27" s="29"/>
-      <c r="K27" s="29">
-        <f>+IFERROR(H27/PD!M28*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="K27" s="29"/>
       <c r="L27" s="29"/>
       <c r="M27" s="28"/>
-      <c r="N27" s="29">
-        <f>+IFERROR(M27/PD!C28*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="N27" s="29"/>
       <c r="O27" s="29"/>
-      <c r="P27" s="29">
-        <f>+IFERROR(M27/PD!M28*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P27" s="29"/>
       <c r="Q27" s="55"/>
       <c r="R27" s="55"/>
       <c r="S27" s="55"/>
@@ -5058,37 +4212,19 @@
       <c r="A28" s="33"/>
       <c r="B28" s="53"/>
       <c r="C28" s="54"/>
-      <c r="D28" s="29">
-        <f>+IFERROR(C28/PD!C28*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D28" s="29"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="29">
-        <f>+IFERROR(C28/PD!M29*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="F28" s="29"/>
       <c r="G28" s="29"/>
       <c r="H28" s="28"/>
-      <c r="I28" s="29">
-        <f>+IFERROR(H28/PD!C29*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="I28" s="29"/>
       <c r="J28" s="29"/>
-      <c r="K28" s="29">
-        <f>+IFERROR(H28/PD!M29*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="K28" s="29"/>
       <c r="L28" s="29"/>
       <c r="M28" s="28"/>
-      <c r="N28" s="29">
-        <f>+IFERROR(M28/PD!C29*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="N28" s="29"/>
       <c r="O28" s="29"/>
-      <c r="P28" s="29">
-        <f>+IFERROR(M28/PD!M29*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P28" s="29"/>
       <c r="Q28" s="55"/>
       <c r="R28" s="55"/>
       <c r="S28" s="55"/>
@@ -5104,37 +4240,19 @@
       <c r="A29" s="33"/>
       <c r="B29" s="53"/>
       <c r="C29" s="54"/>
-      <c r="D29" s="29">
-        <f>+IFERROR(C29/PD!C29*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D29" s="29"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="29">
-        <f>+IFERROR(C29/PD!M30*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="F29" s="29"/>
       <c r="G29" s="29"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="29">
-        <f>+IFERROR(H29/PD!C30*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="I29" s="29"/>
       <c r="J29" s="29"/>
-      <c r="K29" s="29">
-        <f>+IFERROR(H29/PD!M30*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="K29" s="29"/>
       <c r="L29" s="29"/>
       <c r="M29" s="28"/>
-      <c r="N29" s="29">
-        <f>+IFERROR(M29/PD!C30*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="N29" s="29"/>
       <c r="O29" s="29"/>
-      <c r="P29" s="29">
-        <f>+IFERROR(M29/PD!M30*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P29" s="29"/>
       <c r="Q29" s="55"/>
       <c r="R29" s="55"/>
       <c r="S29" s="55"/>
@@ -5150,37 +4268,19 @@
       <c r="A30" s="33"/>
       <c r="B30" s="53"/>
       <c r="C30" s="54"/>
-      <c r="D30" s="29">
-        <f>+IFERROR(C30/PD!C30*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D30" s="29"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="29">
-        <f>+IFERROR(C30/PD!M31*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="F30" s="29"/>
       <c r="G30" s="29"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="29">
-        <f>+IFERROR(H30/PD!C31*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="I30" s="29"/>
       <c r="J30" s="29"/>
-      <c r="K30" s="29">
-        <f>+IFERROR(H30/PD!M31*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="K30" s="29"/>
       <c r="L30" s="29"/>
       <c r="M30" s="28"/>
-      <c r="N30" s="29">
-        <f>+IFERROR(M30/PD!C31*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="N30" s="29"/>
       <c r="O30" s="29"/>
-      <c r="P30" s="29">
-        <f>+IFERROR(M30/PD!M31*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P30" s="29"/>
       <c r="Q30" s="55"/>
       <c r="R30" s="55"/>
       <c r="S30" s="55"/>
@@ -5196,37 +4296,19 @@
       <c r="A31" s="33"/>
       <c r="B31" s="53"/>
       <c r="C31" s="54"/>
-      <c r="D31" s="29">
-        <f>+IFERROR(C31/PD!C31*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D31" s="29"/>
       <c r="E31" s="29"/>
-      <c r="F31" s="29">
-        <f>+IFERROR(C31/PD!M32*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="F31" s="29"/>
       <c r="G31" s="29"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="29">
-        <f>+IFERROR(H31/PD!C32*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="I31" s="29"/>
       <c r="J31" s="29"/>
-      <c r="K31" s="29">
-        <f>+IFERROR(H31/PD!M32*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="K31" s="29"/>
       <c r="L31" s="29"/>
       <c r="M31" s="28"/>
-      <c r="N31" s="29">
-        <f>+IFERROR(M31/PD!C32*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="N31" s="29"/>
       <c r="O31" s="29"/>
-      <c r="P31" s="29">
-        <f>+IFERROR(M31/PD!M32*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="P31" s="29"/>
       <c r="Q31" s="55"/>
       <c r="R31" s="55"/>
       <c r="S31" s="55"/>
@@ -5303,9 +4385,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M11:M12"/>
     <mergeCell ref="A7:S7"/>
     <mergeCell ref="R13:S13"/>
     <mergeCell ref="M10:S10"/>
@@ -5323,6 +4402,9 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="N13:O13"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:M12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S6" xr:uid="{5702C648-8439-4D3C-8715-26CA51EB4A22}">
@@ -5340,10 +4422,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A6:XFD1048573"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I99" sqref="I99"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5634,34 +4716,18 @@
       <c r="A15" s="26"/>
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
-      <c r="D15" s="29">
-        <f>+IFERROR(C15/PD!C16*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="28"/>
-      <c r="G15" s="29">
-        <f>+IFERROR(F15/PD!C16*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="29">
-        <f>+IFERROR(I15/PD!C15*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J15" s="29"/>
       <c r="K15" s="29"/>
-      <c r="L15" s="28">
-        <v>0</v>
-      </c>
-      <c r="M15" s="28">
-        <v>0</v>
-      </c>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
       <c r="N15" s="28"/>
-      <c r="O15" s="29">
-        <f>+IFERROR(N15/PD!C15*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="O15" s="29"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
       <c r="R15" s="29"/>
@@ -5670,34 +4736,18 @@
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
-      <c r="D16" s="29">
-        <f>+IFERROR(C16/PD!C17*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="28"/>
-      <c r="G16" s="29">
-        <f>+IFERROR(F16/PD!C17*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="29">
-        <f>+IFERROR(I16/PD!C16*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J16" s="29"/>
       <c r="K16" s="29"/>
-      <c r="L16" s="28">
-        <v>0</v>
-      </c>
-      <c r="M16" s="28">
-        <v>0</v>
-      </c>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
       <c r="N16" s="28"/>
-      <c r="O16" s="29">
-        <f>+IFERROR(N16/PD!C16*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="O16" s="29"/>
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
@@ -5706,34 +4756,18 @@
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
-      <c r="D17" s="29">
-        <f>+IFERROR(C17/PD!C18*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="28"/>
-      <c r="G17" s="29">
-        <f>+IFERROR(F17/PD!C18*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="28"/>
-      <c r="J17" s="29">
-        <f>+IFERROR(I17/PD!C17*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J17" s="29"/>
       <c r="K17" s="29"/>
-      <c r="L17" s="28">
-        <v>0</v>
-      </c>
-      <c r="M17" s="28">
-        <v>0</v>
-      </c>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
       <c r="N17" s="28"/>
-      <c r="O17" s="29">
-        <f>+IFERROR(N17/PD!C17*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="O17" s="29"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="29"/>
@@ -5742,34 +4776,18 @@
       <c r="A18" s="26"/>
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
-      <c r="D18" s="29">
-        <f>+IFERROR(C18/PD!C19*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="28"/>
-      <c r="G18" s="29">
-        <f>+IFERROR(F18/PD!C19*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="29">
-        <f>+IFERROR(I18/PD!C18*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J18" s="29"/>
       <c r="K18" s="29"/>
-      <c r="L18" s="28">
-        <v>0</v>
-      </c>
-      <c r="M18" s="28">
-        <v>0</v>
-      </c>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
       <c r="N18" s="28"/>
-      <c r="O18" s="29">
-        <f>+IFERROR(N18/PD!C18*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="O18" s="29"/>
       <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
       <c r="R18" s="29"/>
@@ -5778,34 +4796,18 @@
       <c r="A19" s="33"/>
       <c r="B19" s="53"/>
       <c r="C19" s="54"/>
-      <c r="D19" s="29">
-        <f>+IFERROR(C19/PD!C20*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D19" s="29"/>
       <c r="E19" s="55"/>
       <c r="F19" s="54"/>
-      <c r="G19" s="29">
-        <f>+IFERROR(F19/PD!C20*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G19" s="29"/>
       <c r="H19" s="55"/>
       <c r="I19" s="54"/>
-      <c r="J19" s="29">
-        <f>+IFERROR(I19/PD!C19*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J19" s="29"/>
       <c r="K19" s="55"/>
-      <c r="L19" s="54">
-        <v>0</v>
-      </c>
-      <c r="M19" s="54">
-        <v>0</v>
-      </c>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
       <c r="N19" s="54"/>
-      <c r="O19" s="29">
-        <f>+IFERROR(N19/PD!C19*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="O19" s="29"/>
       <c r="P19" s="55"/>
       <c r="Q19" s="55"/>
       <c r="R19" s="55"/>
@@ -5814,34 +4816,18 @@
       <c r="A20" s="33"/>
       <c r="B20" s="53"/>
       <c r="C20" s="54"/>
-      <c r="D20" s="29">
-        <f>+IFERROR(C20/PD!C21*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D20" s="29"/>
       <c r="E20" s="55"/>
       <c r="F20" s="54"/>
-      <c r="G20" s="29">
-        <f>+IFERROR(F20/PD!C21*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G20" s="29"/>
       <c r="H20" s="55"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="29">
-        <f>+IFERROR(I20/PD!C20*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J20" s="29"/>
       <c r="K20" s="55"/>
-      <c r="L20" s="54">
-        <v>0</v>
-      </c>
-      <c r="M20" s="54">
-        <v>0</v>
-      </c>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
       <c r="N20" s="54"/>
-      <c r="O20" s="29">
-        <f>+IFERROR(N20/PD!C20*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="O20" s="29"/>
       <c r="P20" s="55"/>
       <c r="Q20" s="55"/>
       <c r="R20" s="55"/>
@@ -5850,34 +4836,18 @@
       <c r="A21" s="33"/>
       <c r="B21" s="53"/>
       <c r="C21" s="28"/>
-      <c r="D21" s="29">
-        <f>+IFERROR(C21/PD!C22*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D21" s="29"/>
       <c r="E21" s="29"/>
       <c r="F21" s="28"/>
-      <c r="G21" s="29">
-        <f>+IFERROR(F21/PD!C22*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G21" s="29"/>
       <c r="H21" s="29"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="29">
-        <f>+IFERROR(I21/PD!C21*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J21" s="29"/>
       <c r="K21" s="29"/>
-      <c r="L21" s="28">
-        <v>0</v>
-      </c>
-      <c r="M21" s="28">
-        <v>0</v>
-      </c>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
       <c r="N21" s="28"/>
-      <c r="O21" s="29">
-        <f>+IFERROR(N21/PD!C21*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="O21" s="29"/>
       <c r="P21" s="29"/>
       <c r="Q21" s="29"/>
       <c r="R21" s="29"/>
@@ -5886,34 +4856,18 @@
       <c r="A22" s="33"/>
       <c r="B22" s="53"/>
       <c r="C22" s="28"/>
-      <c r="D22" s="29">
-        <f>+IFERROR(C22/PD!C23*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D22" s="29"/>
       <c r="E22" s="29"/>
       <c r="F22" s="28"/>
-      <c r="G22" s="29">
-        <f>+IFERROR(F22/PD!C23*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="28"/>
-      <c r="J22" s="29">
-        <f>+IFERROR(I22/PD!C22*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J22" s="29"/>
       <c r="K22" s="29"/>
-      <c r="L22" s="28">
-        <v>0</v>
-      </c>
-      <c r="M22" s="28">
-        <v>0</v>
-      </c>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
       <c r="N22" s="28"/>
-      <c r="O22" s="29">
-        <f>+IFERROR(N22/PD!C22*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="O22" s="29"/>
       <c r="P22" s="29"/>
       <c r="Q22" s="29"/>
       <c r="R22" s="29"/>
@@ -5922,34 +4876,18 @@
       <c r="A23" s="33"/>
       <c r="B23" s="53"/>
       <c r="C23" s="28"/>
-      <c r="D23" s="29">
-        <f>+IFERROR(C23/PD!C24*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D23" s="29"/>
       <c r="E23" s="29"/>
       <c r="F23" s="28"/>
-      <c r="G23" s="29">
-        <f>+IFERROR(F23/PD!C24*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G23" s="29"/>
       <c r="H23" s="29"/>
       <c r="I23" s="28"/>
-      <c r="J23" s="29">
-        <f>+IFERROR(I23/PD!C23*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J23" s="29"/>
       <c r="K23" s="29"/>
-      <c r="L23" s="28">
-        <v>0</v>
-      </c>
-      <c r="M23" s="28">
-        <v>0</v>
-      </c>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
       <c r="N23" s="28"/>
-      <c r="O23" s="29">
-        <f>+IFERROR(N23/PD!C23*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="O23" s="29"/>
       <c r="P23" s="29"/>
       <c r="Q23" s="29"/>
       <c r="R23" s="29"/>
@@ -5958,34 +4896,18 @@
       <c r="A24" s="33"/>
       <c r="B24" s="53"/>
       <c r="C24" s="28"/>
-      <c r="D24" s="29">
-        <f>+IFERROR(C24/PD!C25*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="28"/>
-      <c r="G24" s="29">
-        <f>+IFERROR(F24/PD!C25*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G24" s="29"/>
       <c r="H24" s="29"/>
       <c r="I24" s="28"/>
-      <c r="J24" s="29">
-        <f>+IFERROR(I24/PD!C24*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J24" s="29"/>
       <c r="K24" s="29"/>
-      <c r="L24" s="28">
-        <v>0</v>
-      </c>
-      <c r="M24" s="28">
-        <v>0</v>
-      </c>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
       <c r="N24" s="28"/>
-      <c r="O24" s="29">
-        <f>+IFERROR(N24/PD!C24*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="O24" s="29"/>
       <c r="P24" s="29"/>
       <c r="Q24" s="29"/>
       <c r="R24" s="29"/>
@@ -5994,34 +4916,18 @@
       <c r="A25" s="33"/>
       <c r="B25" s="53"/>
       <c r="C25" s="28"/>
-      <c r="D25" s="29">
-        <f>+IFERROR(C25/PD!C26*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D25" s="29"/>
       <c r="E25" s="29"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="29">
-        <f>+IFERROR(F25/PD!C26*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G25" s="29"/>
       <c r="H25" s="29"/>
       <c r="I25" s="28"/>
-      <c r="J25" s="29">
-        <f>+IFERROR(I25/PD!C25*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J25" s="29"/>
       <c r="K25" s="29"/>
-      <c r="L25" s="28">
-        <v>0</v>
-      </c>
-      <c r="M25" s="28">
-        <v>0</v>
-      </c>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
       <c r="N25" s="28"/>
-      <c r="O25" s="29">
-        <f>+IFERROR(N25/PD!C25*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="O25" s="29"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
@@ -6030,34 +4936,18 @@
       <c r="A26" s="33"/>
       <c r="B26" s="53"/>
       <c r="C26" s="28"/>
-      <c r="D26" s="29">
-        <f>+IFERROR(C26/PD!C27*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="29">
-        <f>+IFERROR(F26/PD!C27*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G26" s="29"/>
       <c r="H26" s="29"/>
       <c r="I26" s="28"/>
-      <c r="J26" s="29">
-        <f>+IFERROR(I26/PD!C26*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J26" s="29"/>
       <c r="K26" s="29"/>
-      <c r="L26" s="28">
-        <v>0</v>
-      </c>
-      <c r="M26" s="28">
-        <v>0</v>
-      </c>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
       <c r="N26" s="28"/>
-      <c r="O26" s="29">
-        <f>+IFERROR(N26/PD!C26*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="O26" s="29"/>
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="29"/>
@@ -6066,34 +4956,18 @@
       <c r="A27" s="33"/>
       <c r="B27" s="53"/>
       <c r="C27" s="28"/>
-      <c r="D27" s="29">
-        <f>+IFERROR(C27/PD!C28*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="28"/>
-      <c r="G27" s="29">
-        <f>+IFERROR(F27/PD!C28*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G27" s="29"/>
       <c r="H27" s="29"/>
       <c r="I27" s="28"/>
-      <c r="J27" s="29">
-        <f>+IFERROR(I27/PD!C27*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J27" s="29"/>
       <c r="K27" s="29"/>
-      <c r="L27" s="28">
-        <v>0</v>
-      </c>
-      <c r="M27" s="28">
-        <v>0</v>
-      </c>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
       <c r="N27" s="28"/>
-      <c r="O27" s="29">
-        <f>+IFERROR(N27/PD!C27*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="O27" s="29"/>
       <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
@@ -6102,34 +4976,18 @@
       <c r="A28" s="33"/>
       <c r="B28" s="53"/>
       <c r="C28" s="28"/>
-      <c r="D28" s="29">
-        <f>+IFERROR(C28/PD!C29*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="28"/>
-      <c r="G28" s="29">
-        <f>+IFERROR(F28/PD!C29*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="28"/>
-      <c r="J28" s="29">
-        <f>+IFERROR(I28/PD!C28*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J28" s="29"/>
       <c r="K28" s="29"/>
-      <c r="L28" s="28">
-        <v>0</v>
-      </c>
-      <c r="M28" s="28">
-        <v>0</v>
-      </c>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
       <c r="N28" s="28"/>
-      <c r="O28" s="29">
-        <f>+IFERROR(N28/PD!C28*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="O28" s="29"/>
       <c r="P28" s="29"/>
       <c r="Q28" s="29"/>
       <c r="R28" s="29"/>
@@ -6138,34 +4996,18 @@
       <c r="A29" s="33"/>
       <c r="B29" s="53"/>
       <c r="C29" s="28"/>
-      <c r="D29" s="29">
-        <f>+IFERROR(C29/PD!C30*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D29" s="29"/>
       <c r="E29" s="29"/>
       <c r="F29" s="28"/>
-      <c r="G29" s="29">
-        <f>+IFERROR(F29/PD!C30*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G29" s="29"/>
       <c r="H29" s="29"/>
       <c r="I29" s="28"/>
-      <c r="J29" s="29">
-        <f>+IFERROR(I29/PD!C29*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J29" s="29"/>
       <c r="K29" s="29"/>
-      <c r="L29" s="28">
-        <v>0</v>
-      </c>
-      <c r="M29" s="28">
-        <v>0</v>
-      </c>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
       <c r="N29" s="28"/>
-      <c r="O29" s="29">
-        <f>+IFERROR(N29/PD!C29*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="O29" s="29"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="29"/>
@@ -6174,34 +5016,18 @@
       <c r="A30" s="33"/>
       <c r="B30" s="53"/>
       <c r="C30" s="54"/>
-      <c r="D30" s="29">
-        <f>+IFERROR(C30/PD!C31*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D30" s="29"/>
       <c r="E30" s="55"/>
       <c r="F30" s="54"/>
-      <c r="G30" s="29">
-        <f>+IFERROR(F30/PD!C31*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G30" s="29"/>
       <c r="H30" s="55"/>
       <c r="I30" s="54"/>
-      <c r="J30" s="29">
-        <f>+IFERROR(I30/PD!C30*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J30" s="29"/>
       <c r="K30" s="55"/>
-      <c r="L30" s="54">
-        <v>0</v>
-      </c>
-      <c r="M30" s="54">
-        <v>0</v>
-      </c>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
       <c r="N30" s="54"/>
-      <c r="O30" s="29">
-        <f>+IFERROR(N30/PD!C30*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="O30" s="29"/>
       <c r="P30" s="55"/>
       <c r="Q30" s="55"/>
       <c r="R30" s="55"/>
@@ -6210,34 +5036,18 @@
       <c r="A31" s="33"/>
       <c r="B31" s="53"/>
       <c r="C31" s="54"/>
-      <c r="D31" s="29">
-        <f>+IFERROR(C31/PD!C32*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="D31" s="29"/>
       <c r="E31" s="55"/>
       <c r="F31" s="54"/>
-      <c r="G31" s="29">
-        <f>+IFERROR(F31/PD!C32*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G31" s="29"/>
       <c r="H31" s="55"/>
       <c r="I31" s="54"/>
-      <c r="J31" s="29">
-        <f>+IFERROR(I31/PD!C31*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J31" s="29"/>
       <c r="K31" s="55"/>
-      <c r="L31" s="54">
-        <v>0</v>
-      </c>
-      <c r="M31" s="54">
-        <v>0</v>
-      </c>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
       <c r="N31" s="54"/>
-      <c r="O31" s="29">
-        <f>+IFERROR(N31/PD!C31*100,0)</f>
-        <v>0</v>
-      </c>
+      <c r="O31" s="29"/>
       <c r="P31" s="55"/>
       <c r="Q31" s="55"/>
       <c r="R31" s="55"/>
